--- a/excel2sbol/tests/test_files/test_version7_flapjack_compiler_sbol3_v0017_vector_dna.xlsx
+++ b/excel2sbol/tests/test_files/test_version7_flapjack_compiler_sbol3_v0017_vector_dna.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saisa\Excel-to-SBOL\excel2sbol\tests\test_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA8B2CB-48E4-454F-B19A-D98B39EBAC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="742" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="9" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Vector" sheetId="20" r:id="rId3"/>
     <sheet name="DNAs" sheetId="22" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -348,9 +342,6 @@
     <t>VectorID</t>
   </si>
   <si>
-    <t>sbol_type</t>
-  </si>
-  <si>
     <t>Molecule Type</t>
   </si>
   <si>
@@ -358,12 +349,15 @@
   </si>
   <si>
     <t>sbol_roles</t>
+  </si>
+  <si>
+    <t>sbol_types</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -689,6 +683,7 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -696,7 +691,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
@@ -704,26 +698,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="68">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -755,7 +729,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -841,7 +814,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -876,7 +848,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -1553,6 +1524,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1595,7 +1586,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Library-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Library-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="67"/>
       <tableStyleElement type="firstRowStripe" dxfId="66"/>
       <tableStyleElement type="secondRowStripe" dxfId="65"/>
@@ -1613,74 +1604,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A10:I12" totalsRowShown="0" headerRowDxfId="64">
-  <autoFilter ref="A10:I12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A10:I12" totalsRowShown="0" headerRowDxfId="64">
+  <autoFilter ref="A10:I12"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sheet Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Convert"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Lib Start Row"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Has Collections"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="# of Collect Rows"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Collect Cols"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Has Descripts"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Descript Start Row"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Descript Cols"/>
+    <tableColumn id="1" name="Sheet Name"/>
+    <tableColumn id="2" name="Convert"/>
+    <tableColumn id="3" name="Lib Start Row"/>
+    <tableColumn id="8" name="Has Collections"/>
+    <tableColumn id="4" name="# of Collect Rows"/>
+    <tableColumn id="5" name="Collect Cols"/>
+    <tableColumn id="9" name="Has Descripts"/>
+    <tableColumn id="6" name="Descript Start Row"/>
+    <tableColumn id="7" name="Descript Cols"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CD4613FF-4CB1-4BEE-877A-B3011ADCDC7D}" name="Table46" displayName="Table46" ref="A1:P16" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:P16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table46" displayName="Table46" ref="A1:P16" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:P16"/>
   <tableColumns count="16">
-    <tableColumn id="16" xr3:uid="{DD11BDB0-66D6-41A8-9CEB-F6B111251542}" name="Sheet Name" dataDxfId="27"/>
-    <tableColumn id="1" xr3:uid="{289BA199-6B97-4088-AF4E-AA2190A4F03E}" name="Column Name" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{34A134ED-3E85-47AA-8E78-907458A040D8}" name="SBOL Term"/>
-    <tableColumn id="3" xr3:uid="{D6F230BB-12C5-4466-B0B6-45DA75981F10}" name="Namespace URL" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{E9BDA8CA-45E1-4EEE-A4A7-24A3F9B20960}" name="Type" dataDxfId="24" dataCellStyle="Hyperlink"/>
-    <tableColumn id="4" xr3:uid="{2587CA85-A8A9-400F-A0F0-16603D60E5F0}" name="Split On"/>
-    <tableColumn id="6" xr3:uid="{6F3A12B5-3B73-4C07-9901-05A92A53B0C3}" name="Pattern"/>
-    <tableColumn id="7" xr3:uid="{4A9EF1A5-22A9-462D-BCCE-05C10791AD31}" name="Tyto Lookup" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{ED4864EB-552F-44B8-A371-CFE73600B55B}" name="Sheet Lookup" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{0903E450-B88C-4DD6-B850-3671CA5DB99D}" name="Replacement Lookup" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{133A762A-07BB-4D96-83D0-8AFFEC4E6ADF}" name="Object_ID Lookup" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{4252F029-B459-4103-92D8-75944795A0B1}" name="Parent Lookup" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{74671D69-DE34-475F-A9B4-A10E361A158C}" name="Lookup Sheet Name" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{7475768F-8D67-49A4-BBE9-0684AE63CCAD}" name="From Col" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{4F615032-35AF-4F2B-8267-27BC4919CA25}" name="To Col" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{1DF6A302-2D5E-4E1F-8AC4-1F748A1F10D6}" name="Ontology Name" dataDxfId="15"/>
+    <tableColumn id="16" name="Sheet Name" dataDxfId="25"/>
+    <tableColumn id="1" name="Column Name" dataDxfId="24"/>
+    <tableColumn id="2" name="SBOL Term"/>
+    <tableColumn id="3" name="Namespace URL" dataDxfId="23"/>
+    <tableColumn id="17" name="Type" dataDxfId="22" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" name="Split On"/>
+    <tableColumn id="6" name="Pattern"/>
+    <tableColumn id="7" name="Tyto Lookup" dataDxfId="21"/>
+    <tableColumn id="8" name="Sheet Lookup" dataDxfId="20"/>
+    <tableColumn id="9" name="Replacement Lookup" dataDxfId="19"/>
+    <tableColumn id="10" name="Object_ID Lookup" dataDxfId="18"/>
+    <tableColumn id="11" name="Parent Lookup" dataDxfId="17"/>
+    <tableColumn id="12" name="Lookup Sheet Name" dataDxfId="16"/>
+    <tableColumn id="13" name="From Col" dataDxfId="15"/>
+    <tableColumn id="14" name="To Col" dataDxfId="14"/>
+    <tableColumn id="15" name="Ontology Name" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{11342210-FEF2-4D66-B74F-2F65C3963B27}" name="Table_1789410111213" displayName="Table_1789410111213" ref="A19:G24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table_1789410111213" displayName="Table_1789410111213" ref="A19:G24">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6E8CCA26-4FFA-41E3-8A41-85A210BAEB94}" name="Vector ID"/>
-    <tableColumn id="12" xr3:uid="{521C802C-4ECD-4C40-8F67-35DBC3FD77BE}" name="DNA ID" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{2427EDD2-8A67-42AF-B135-CC0EA99DD735}" name="Vector Owner" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{244CF30F-BD8D-4506-8B5A-B8BAB41B591A}" name="Vector Name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{576C194B-E420-4BBB-ADC3-5DDB83CB8EF5}" name="SBOL Object Type" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{C90A0C34-D411-47D5-AC6B-D2723C65C0F8}" name="Molecule Type" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{A0D0D9B0-89FD-4836-A2C0-3C8AA99298CC}" name="Role" dataDxfId="9"/>
+    <tableColumn id="1" name="Vector ID"/>
+    <tableColumn id="12" name="DNA ID" dataDxfId="12"/>
+    <tableColumn id="5" name="Vector Owner" dataDxfId="11"/>
+    <tableColumn id="2" name="Vector Name" dataDxfId="10"/>
+    <tableColumn id="3" name="SBOL Object Type" dataDxfId="9"/>
+    <tableColumn id="6" name="Molecule Type" dataDxfId="8"/>
+    <tableColumn id="4" name="Role" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{6183AA39-E407-4C70-A5F6-28A753704314}" name="Table_17894101112131415" displayName="Table_17894101112131415" ref="A19:H24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table_17894101112131415" displayName="Table_17894101112131415" ref="A19:H24">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4BB17104-3E17-4A05-935B-955E8D94EBEA}" name="DNA ID"/>
-    <tableColumn id="8" xr3:uid="{C17B123F-4BD0-42DD-BC8D-08A2DEA4F587}" name="VectorID" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{887000BD-BD97-473E-8210-88FACF6054D8}" name="DNA Owner" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{C883D0FB-8B52-4EF3-9CE1-12AB6CEB15D7}" name="DNA Name" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{88F4FAA7-03E0-4794-AFD0-C5E13EBBCC3A}" name="SBOL URI" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{206AD49F-4508-4B59-92E2-9D6360374286}" name="SBOL Object Type" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{32927D06-C742-4D61-9DAF-FEE338A83881}" name="Molecule Type" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{BCEC9E40-EBC7-4F6B-B344-CD9B67819024}" name="Role" dataDxfId="2"/>
+    <tableColumn id="1" name="DNA ID"/>
+    <tableColumn id="8" name="VectorID" dataDxfId="6"/>
+    <tableColumn id="5" name="DNA Owner" dataDxfId="5"/>
+    <tableColumn id="2" name="DNA Name" dataDxfId="4"/>
+    <tableColumn id="4" name="SBOL URI" dataDxfId="3"/>
+    <tableColumn id="3" name="SBOL Object Type" dataDxfId="2"/>
+    <tableColumn id="6" name="Molecule Type" dataDxfId="1"/>
+    <tableColumn id="7" name="Role" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1883,7 +1874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1893,20 +1884,20 @@
       <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.23046875" customWidth="1"/>
+    <col min="2" max="2" width="9.69140625" customWidth="1"/>
+    <col min="3" max="3" width="14.84375" customWidth="1"/>
+    <col min="4" max="4" width="16.69140625" customWidth="1"/>
+    <col min="5" max="5" width="18.23046875" customWidth="1"/>
+    <col min="6" max="6" width="13.4609375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" customWidth="1"/>
-    <col min="9" max="9" width="14.6328125" customWidth="1"/>
+    <col min="8" max="8" width="19.3828125" customWidth="1"/>
+    <col min="9" max="9" width="14.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>34</v>
       </c>
@@ -1915,7 +1906,7 @@
       </c>
       <c r="C1" s="25"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
         <v>35</v>
       </c>
@@ -1923,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -1952,7 +1943,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1981,7 +1972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -2021,7 +2012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69874B19-BA8A-4750-A9A4-B27E9A949BFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
@@ -2031,31 +2022,31 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.26953125" customWidth="1"/>
-    <col min="6" max="6" width="8.453125" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" customWidth="1"/>
-    <col min="10" max="10" width="17.36328125" customWidth="1"/>
-    <col min="11" max="11" width="14.6328125" customWidth="1"/>
-    <col min="12" max="12" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.453125" customWidth="1"/>
-    <col min="14" max="14" width="8.6328125" customWidth="1"/>
-    <col min="15" max="15" width="7.1796875" customWidth="1"/>
-    <col min="16" max="16" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="32" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.23046875" customWidth="1"/>
+    <col min="6" max="6" width="8.4609375" customWidth="1"/>
+    <col min="7" max="7" width="9.3828125" customWidth="1"/>
+    <col min="8" max="8" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.23046875" customWidth="1"/>
+    <col min="10" max="10" width="17.3828125" customWidth="1"/>
+    <col min="11" max="11" width="14.61328125" customWidth="1"/>
+    <col min="12" max="12" width="13.921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.4609375" customWidth="1"/>
+    <col min="14" max="14" width="8.61328125" customWidth="1"/>
+    <col min="15" max="15" width="7.15234375" customWidth="1"/>
+    <col min="16" max="16" width="16.4609375" bestFit="1" customWidth="1"/>
+    <col min="17" max="32" width="8.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
@@ -2105,7 +2096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -2141,11 +2132,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="34" t="s">
         <v>56</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -2177,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -2213,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -2249,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -2285,15 +2276,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>73</v>
@@ -2322,7 +2313,7 @@
       </c>
       <c r="P7" s="17"/>
     </row>
-    <row r="8" spans="1:16" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>51</v>
       </c>
@@ -2330,10 +2321,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>13</v>
@@ -2359,7 +2350,7 @@
       </c>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -2395,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -2431,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2467,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -2503,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -2539,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -2575,15 +2566,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>55</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>73</v>
@@ -2612,7 +2603,7 @@
       </c>
       <c r="P15" s="17"/>
     </row>
-    <row r="16" spans="1:16" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
         <v>55</v>
       </c>
@@ -2620,10 +2611,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>13</v>
@@ -2787,29 +2778,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" xr:uid="{2DD1201F-4DFD-4B83-A582-018E15734F24}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{2F8A1640-5028-4DA1-B248-6833AFF051D9}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{33A2191A-B89B-431E-8DD2-9A726CEE1947}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{D0A0D42A-24AF-45C8-96EB-5D97EBB38120}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{DC0BAB61-6716-45D1-8C4B-7BFB56FFA946}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{75D29265-624B-47A9-886D-E1F3F6993642}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{607C4906-5CF2-4AFF-950C-B9BEC26CFB9F}"/>
-    <hyperlink ref="D13" r:id="rId8" xr:uid="{61F01FA2-4BE5-4695-98CD-DBB89997B4F0}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{E0B8AD81-55EF-4308-BE51-7AAA22F0B812}"/>
-    <hyperlink ref="D7" r:id="rId10" xr:uid="{C9FF1BF6-E8BF-424B-A49F-B21D79EB96D8}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{B17A9F34-8251-45DF-8713-DFC41EF8D4DD}"/>
-    <hyperlink ref="D8" r:id="rId12" display="http://sbols.org/v2#" xr:uid="{3832DF4F-B90C-45D1-9AF6-626D349FB256}"/>
-    <hyperlink ref="D15" r:id="rId13" xr:uid="{171C57A2-D8F7-4B0D-94D5-0C6BDF9D2E67}"/>
-    <hyperlink ref="D16" r:id="rId14" display="http://sbols.org/v2#" xr:uid="{8A66E900-318C-4C25-B4A3-D54B32464199}"/>
-    <hyperlink ref="D5" r:id="rId15" xr:uid="{4C2DAC70-64C2-4C81-9226-BD685463DB61}"/>
+    <hyperlink ref="D11" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="D2" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D9" r:id="rId6"/>
+    <hyperlink ref="D10" r:id="rId7"/>
+    <hyperlink ref="D13" r:id="rId8"/>
+    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D7" r:id="rId10"/>
+    <hyperlink ref="D14" r:id="rId11"/>
+    <hyperlink ref="D8" r:id="rId12" display="http://sbols.org/v2#"/>
+    <hyperlink ref="D15" r:id="rId13"/>
+    <hyperlink ref="D16" r:id="rId14" display="http://sbols.org/v2#"/>
+    <hyperlink ref="D5" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId16"/>
@@ -2820,25 +2811,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A68CF1-82BE-4F4B-A3FF-12C853004BC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T92"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" customWidth="1"/>
-    <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="15" width="8.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.15234375" customWidth="1"/>
+    <col min="2" max="3" width="14.15234375" customWidth="1"/>
+    <col min="4" max="4" width="11.15234375" customWidth="1"/>
+    <col min="5" max="5" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.84375" customWidth="1"/>
+    <col min="7" max="7" width="10.07421875" bestFit="1" customWidth="1"/>
+    <col min="8" max="15" width="8.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2848,7 +2839,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="12"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2856,7 +2847,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2864,7 +2855,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2872,7 +2863,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2880,7 +2871,7 @@
       <c r="C5" s="12"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2888,7 +2879,7 @@
       <c r="C6" s="12"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -2896,7 +2887,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -2904,13 +2895,13 @@
       <c r="C8" s="12"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -2918,21 +2909,21 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -2951,7 +2942,7 @@
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>94</v>
       </c>
@@ -2982,7 +2973,7 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -2999,7 +2990,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -3016,7 +3007,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
@@ -3035,7 +3026,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3043,7 +3034,7 @@
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
         <v>54</v>
       </c>
@@ -3060,13 +3051,13 @@
         <v>31</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>94</v>
       </c>
@@ -3089,7 +3080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>95</v>
       </c>
@@ -3125,7 +3116,7 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
     </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>96</v>
       </c>
@@ -3161,7 +3152,7 @@
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
     </row>
-    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>97</v>
       </c>
@@ -3197,7 +3188,7 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
     </row>
-    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>72</v>
       </c>
@@ -3233,7 +3224,7 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
     </row>
-    <row r="56" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
@@ -3246,7 +3237,7 @@
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
     </row>
-    <row r="57" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
@@ -3259,7 +3250,7 @@
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
     </row>
-    <row r="59" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
@@ -3272,7 +3263,7 @@
       <c r="N59" s="12"/>
       <c r="O59" s="12"/>
     </row>
-    <row r="66" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
@@ -3285,7 +3276,7 @@
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
     </row>
-    <row r="68" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
@@ -3298,7 +3289,7 @@
       <c r="N68" s="12"/>
       <c r="O68" s="12"/>
     </row>
-    <row r="69" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
@@ -3311,7 +3302,7 @@
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
     </row>
-    <row r="71" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
@@ -3324,7 +3315,7 @@
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
     </row>
-    <row r="72" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
@@ -3337,7 +3328,7 @@
       <c r="N72" s="12"/>
       <c r="O72" s="12"/>
     </row>
-    <row r="74" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
@@ -3350,7 +3341,7 @@
       <c r="N74" s="12"/>
       <c r="O74" s="12"/>
     </row>
-    <row r="75" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
@@ -3363,7 +3354,7 @@
       <c r="N75" s="12"/>
       <c r="O75" s="12"/>
     </row>
-    <row r="77" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
@@ -3376,7 +3367,7 @@
       <c r="N77" s="12"/>
       <c r="O77" s="12"/>
     </row>
-    <row r="83" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
@@ -3389,7 +3380,7 @@
       <c r="N83" s="12"/>
       <c r="O83" s="12"/>
     </row>
-    <row r="85" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
@@ -3402,7 +3393,7 @@
       <c r="N85" s="12"/>
       <c r="O85" s="12"/>
     </row>
-    <row r="86" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
@@ -3415,7 +3406,7 @@
       <c r="N86" s="12"/>
       <c r="O86" s="12"/>
     </row>
-    <row r="87" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
@@ -3428,7 +3419,7 @@
       <c r="N87" s="12"/>
       <c r="O87" s="12"/>
     </row>
-    <row r="88" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
@@ -3441,7 +3432,7 @@
       <c r="N88" s="12"/>
       <c r="O88" s="12"/>
     </row>
-    <row r="89" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
@@ -3454,7 +3445,7 @@
       <c r="N89" s="12"/>
       <c r="O89" s="12"/>
     </row>
-    <row r="91" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
@@ -3467,7 +3458,7 @@
       <c r="N91" s="12"/>
       <c r="O91" s="12"/>
     </row>
-    <row r="92" spans="5:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
@@ -3486,7 +3477,7 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E24" xr:uid="{A26E61B1-DAE8-4356-9676-095EC254CC61}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20:E24">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -3499,25 +3490,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA9DCBD-8B69-4216-9D15-36F8BCA7070C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T92"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.23046875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="4" max="5" width="11.1796875" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="8.54296875" customWidth="1"/>
+    <col min="1" max="2" width="16.15234375" customWidth="1"/>
+    <col min="3" max="3" width="14.15234375" customWidth="1"/>
+    <col min="4" max="5" width="11.15234375" customWidth="1"/>
+    <col min="6" max="6" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.84375" customWidth="1"/>
+    <col min="8" max="8" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="8.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3526,7 +3517,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -3535,7 +3526,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3544,7 +3535,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3553,7 +3544,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3562,7 +3553,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -3571,7 +3562,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -3580,7 +3571,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -3589,14 +3580,14 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>9</v>
       </c>
@@ -3605,23 +3596,23 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="37"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -3640,7 +3631,7 @@
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>79</v>
       </c>
@@ -3673,7 +3664,7 @@
       <c r="N14" s="12"/>
       <c r="O14" s="12"/>
     </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -3690,7 +3681,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -3707,7 +3698,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
@@ -3726,7 +3717,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="6"/>
@@ -3735,7 +3726,7 @@
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="23" t="s">
         <v>56</v>
       </c>
@@ -3755,13 +3746,13 @@
         <v>31</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H19" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>79</v>
       </c>
@@ -3787,7 +3778,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
         <v>80</v>
       </c>
@@ -3825,7 +3816,7 @@
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
     </row>
-    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
         <v>81</v>
       </c>
@@ -3863,7 +3854,7 @@
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
     </row>
-    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
         <v>82</v>
       </c>
@@ -3901,7 +3892,7 @@
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
     </row>
-    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>83</v>
       </c>
@@ -3939,7 +3930,7 @@
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
     </row>
-    <row r="56" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F56" s="12"/>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -3951,7 +3942,7 @@
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
     </row>
-    <row r="57" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -3963,7 +3954,7 @@
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
     </row>
-    <row r="59" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -3975,7 +3966,7 @@
       <c r="N59" s="12"/>
       <c r="O59" s="12"/>
     </row>
-    <row r="66" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -3987,7 +3978,7 @@
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
     </row>
-    <row r="68" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F68" s="12"/>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
@@ -3999,7 +3990,7 @@
       <c r="N68" s="12"/>
       <c r="O68" s="12"/>
     </row>
-    <row r="69" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12"/>
@@ -4011,7 +4002,7 @@
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
     </row>
-    <row r="71" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
       <c r="H71" s="12"/>
@@ -4023,7 +4014,7 @@
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
     </row>
-    <row r="72" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F72" s="12"/>
       <c r="G72" s="12"/>
       <c r="H72" s="12"/>
@@ -4035,7 +4026,7 @@
       <c r="N72" s="12"/>
       <c r="O72" s="12"/>
     </row>
-    <row r="74" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
@@ -4047,7 +4038,7 @@
       <c r="N74" s="12"/>
       <c r="O74" s="12"/>
     </row>
-    <row r="75" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F75" s="12"/>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
@@ -4059,7 +4050,7 @@
       <c r="N75" s="12"/>
       <c r="O75" s="12"/>
     </row>
-    <row r="77" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
@@ -4071,7 +4062,7 @@
       <c r="N77" s="12"/>
       <c r="O77" s="12"/>
     </row>
-    <row r="83" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F83" s="12"/>
       <c r="G83" s="12"/>
       <c r="H83" s="12"/>
@@ -4083,7 +4074,7 @@
       <c r="N83" s="12"/>
       <c r="O83" s="12"/>
     </row>
-    <row r="85" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
       <c r="H85" s="12"/>
@@ -4095,7 +4086,7 @@
       <c r="N85" s="12"/>
       <c r="O85" s="12"/>
     </row>
-    <row r="86" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F86" s="12"/>
       <c r="G86" s="12"/>
       <c r="H86" s="12"/>
@@ -4107,7 +4098,7 @@
       <c r="N86" s="12"/>
       <c r="O86" s="12"/>
     </row>
-    <row r="87" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F87" s="12"/>
       <c r="G87" s="12"/>
       <c r="H87" s="12"/>
@@ -4119,7 +4110,7 @@
       <c r="N87" s="12"/>
       <c r="O87" s="12"/>
     </row>
-    <row r="88" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F88" s="12"/>
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
@@ -4131,7 +4122,7 @@
       <c r="N88" s="12"/>
       <c r="O88" s="12"/>
     </row>
-    <row r="89" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F89" s="12"/>
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
@@ -4143,7 +4134,7 @@
       <c r="N89" s="12"/>
       <c r="O89" s="12"/>
     </row>
-    <row r="91" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -4155,7 +4146,7 @@
       <c r="N91" s="12"/>
       <c r="O91" s="12"/>
     </row>
-    <row r="92" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
       <c r="H92" s="12"/>
@@ -4173,7 +4164,7 @@
   </mergeCells>
   <phoneticPr fontId="22" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:F24" xr:uid="{9DB7E9CA-FC26-4C0D-ADB8-CDDE66912694}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F20:F24">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
